--- a/ExcelExamples/Caplet.xlsx
+++ b/ExcelExamples/Caplet.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="15600" windowHeight="10290"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BlackFormula" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="settlementDate">Sheet1!$C$9</definedName>
-    <definedName name="valueDate">Sheet1!$C$2</definedName>
-    <definedName name="zarCurve">Sheet1!$H$7</definedName>
+    <definedName name="accrueEndDate">BlackFormula!$C$11</definedName>
+    <definedName name="accrueStartDate">BlackFormula!$C$10</definedName>
+    <definedName name="exerciseDate">BlackFormula!$C$8</definedName>
+    <definedName name="settlementDate">BlackFormula!$C$9</definedName>
+    <definedName name="valueDate">BlackFormula!$C$2</definedName>
+    <definedName name="zarCurve">BlackFormula!$H$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>QSA.FormulaBlack</t>
   </si>
@@ -105,9 +106,6 @@
     <t>accrueStartDate</t>
   </si>
   <si>
-    <t>accreEndDate</t>
-  </si>
-  <si>
     <t>valueDate</t>
   </si>
   <si>
@@ -133,14 +131,24 @@
   </si>
   <si>
     <t>zarCurve</t>
+  </si>
+  <si>
+    <t>accrueEndDate</t>
+  </si>
+  <si>
+    <t>accrualFraction</t>
+  </si>
+  <si>
+    <t>caplet value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -236,18 +244,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,37 +560,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="75.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>43308</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G3" s="5">
-        <f ca="1">valueDate</f>
+        <f>valueDate</f>
         <v>43308</v>
       </c>
       <c r="H3" s="6">
@@ -592,14 +602,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <f ca="1">EDATE(G3,12)</f>
+        <f>EDATE(G3,12)</f>
         <v>43673</v>
       </c>
       <c r="H4" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -607,22 +617,22 @@
         <v>3</v>
       </c>
       <c r="G5" s="5">
-        <f ca="1">EDATE(G4,48)</f>
+        <f>EDATE(G4,48)</f>
         <v>45134</v>
       </c>
       <c r="H5" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -630,46 +640,46 @@
         <v>1000000</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f ca="1">_xll.QSA.CreateDatesAndRatesCurve(G7,G3:G5,H3:H5,"ZAR")</f>
-        <v>zarCurve.06:34:13-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <f>_xll.QSA.CreateDatesAndRatesCurve(G7,G3:G5,H3:H5)</f>
+        <v>zarCurve.11:20:31-17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5">
-        <f ca="1">EDATE(C2,3)</f>
+        <f>EDATE(valueDate,3)</f>
         <v>43400</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5">
-        <f>EDATE(C3,3)</f>
+        <f>exerciseDate</f>
         <v>43400</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5">
-        <f>EDATE(C4,3)</f>
+        <f>settlementDate</f>
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
-        <f ca="1">EDATE(C10,3)</f>
+        <f>EDATE(settlementDate,3)</f>
         <v>43492</v>
       </c>
     </row>
@@ -678,81 +688,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C17</f>
+        <v>7.1390879979974453E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="11">
+        <f>_xll.QSA.GetYearFraction(valueDate,settlementDate,"ACT365")</f>
+        <v>0.25205479452054796</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10">
-        <f ca="1">_xll.QSA.GetYearFraction(valueDate,settlementDate,"ACT365")</f>
+      <c r="C17" s="10">
+        <f>_xll.QSA.GetSimpleForward(zarCurve,accrueStartDate,accrueEndDate)</f>
+        <v>7.1390879979974453E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11">
+        <f>_xll.QSA.GetDF(zarCurve,settlementDate)</f>
+        <v>0.98244848691327069</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11">
+        <f>_xll.QSA.GetYearFraction(accrueStartDate,accrueEndDate)</f>
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10" t="e">
-        <f ca="1">QSA.Get</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
-        <f ca="1">_xll.QSA.GetDF(zarCurve,settlementDate)</f>
-        <v>0.98244848691327069</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="str">
-        <f>_xll.QSA.FormulaBlack("call")</f>
-        <v>ERROR: putOrCall: No converter for type: PutOrCall and no object named call on the map.</v>
+    <row r="23" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9">
+        <f>1000000*C21*_xll.QSA.FormulaBlack("call",C15,C16,C17,C18,C19)</f>
+        <v>527.69625154243909</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>